--- a/biology/Zoologie/Duvalius_diniensis/Duvalius_diniensis.xlsx
+++ b/biology/Zoologie/Duvalius_diniensis/Duvalius_diniensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Duvalius de Digne
-Duvalius diniensis, le Duvalius de Digne, est une espèce d'insectes coléoptères de la famille des Carabidae[1].
+Duvalius diniensis, le Duvalius de Digne, est une espèce d'insectes coléoptères de la famille des Carabidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'une taille de 4,5 à 5,5 millimètres, il est aptère, aveugle et dépigmenté (conséquences de son mode de vie cavernicole). Son tégument a une apparence brun roussâtre brillante, ses antennes sont fines et atteignent le milieu des élytres[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'une taille de 4,5 à 5,5 millimètres, il est aptère, aveugle et dépigmenté (conséquences de son mode de vie cavernicole). Son tégument a une apparence brun roussâtre brillante, ses antennes sont fines et atteignent le milieu des élytres.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique du département des Alpes-de-Haute-Provence, il vit dans le milieu endogé et cavernicole. C'est une espèce très rare. 
 La sous-espèce melanensis n'est connue que de la grotte Saint-Vincent située sur la commune du Castellard-Mélan.
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 janvier 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 janvier 2024) :
 Duvalius diniensis diniensis (Peyerimhoff, 1904)
 Duvalius diniensis melanensis Giordan &amp; Raffaldi, 1999
 Duvalius diniensis peyerimhoffi (Jakobson, 1906)</t>
@@ -608,14 +626,16 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Duvalius diniensis (Peyerimhoff, 1904)[3].
-L'espèce a été initialement classée dans le genre Trechus sous le protonyme Trechus diniensis Peyerimhoff, 1904[3],[4].
-Le nom vernaculaire de cette espèce est Duvalius de Digne[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Duvalius diniensis (Peyerimhoff, 1904).
+L'espèce a été initialement classée dans le genre Trechus sous le protonyme Trechus diniensis Peyerimhoff, 1904,.
+Le nom vernaculaire de cette espèce est Duvalius de Digne.
 Duvalius diniensis a pour synonyme :
-Trechus diniensis Peyerimhoff, 1904[3]
-Trechus (Anophthalmus) diniensis Peyerimhoff, 1904[4]</t>
+Trechus diniensis Peyerimhoff, 1904
+Trechus (Anophthalmus) diniensis Peyerimhoff, 1904</t>
         </is>
       </c>
     </row>
@@ -643,9 +663,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de dini et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence à sa localité type, la grotte de Cousson[5] près de Digne[4]. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de dini et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donnée en référence à sa localité type, la grotte de Cousson près de Digne. 
 </t>
         </is>
       </c>
@@ -674,7 +696,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>P. de Peyerimhoff, « Coléoptères cavernicoles inédits recueillis dans les Basses-Alpes. Première note : Carabidae », Bulletin de la Société entomologique de France, Paris, SEF, vol. 9, no 13,‎ 1904, p. 201-203 (ISSN 0037-928X et 2540-2641, OCLC 1765811, DOI 10.3406/BSEF.1904.23550, lire en ligne)</t>
         </is>
